--- a/7/2/2/1/Resto del mundo 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/Resto del mundo 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Serie</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8402,7 +8405,7 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>333257</v>
+        <v>336711</v>
       </c>
       <c r="C75">
         <v>1983</v>
@@ -8414,31 +8417,31 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>69053</v>
+        <v>69044</v>
       </c>
       <c r="G75">
         <v>377</v>
       </c>
       <c r="H75">
-        <v>68676</v>
+        <v>68667</v>
       </c>
       <c r="I75">
-        <v>-792</v>
+        <v>-686</v>
       </c>
       <c r="J75">
-        <v>76284</v>
+        <v>75228</v>
       </c>
       <c r="K75">
-        <v>4415</v>
+        <v>4405</v>
       </c>
       <c r="L75">
-        <v>71869</v>
+        <v>70823</v>
       </c>
       <c r="M75">
-        <v>179607</v>
+        <v>184013</v>
       </c>
       <c r="N75">
-        <v>176459</v>
+        <v>180866</v>
       </c>
       <c r="O75">
         <v>1193</v>
@@ -8447,49 +8450,49 @@
         <v>1954</v>
       </c>
       <c r="Q75">
-        <v>7122</v>
+        <v>7129</v>
       </c>
       <c r="R75">
-        <v>21223</v>
+        <v>19579</v>
       </c>
       <c r="S75">
-        <v>312034</v>
+        <v>317132</v>
       </c>
       <c r="T75">
         <v>496</v>
       </c>
       <c r="U75">
-        <v>20357</v>
+        <v>19782</v>
       </c>
       <c r="V75">
-        <v>11157</v>
+        <v>10982</v>
       </c>
       <c r="W75">
-        <v>9200</v>
+        <v>8801</v>
       </c>
       <c r="X75">
-        <v>54931</v>
+        <v>55560</v>
       </c>
       <c r="Y75">
         <v>3455</v>
       </c>
       <c r="Z75">
-        <v>51476</v>
+        <v>52105</v>
       </c>
       <c r="AA75">
-        <v>13597</v>
+        <v>13461</v>
       </c>
       <c r="AB75">
-        <v>882</v>
+        <v>929</v>
       </c>
       <c r="AC75">
-        <v>12715</v>
+        <v>12533</v>
       </c>
       <c r="AD75">
-        <v>211716</v>
+        <v>216752</v>
       </c>
       <c r="AE75">
-        <v>146022</v>
+        <v>151058</v>
       </c>
       <c r="AF75">
         <v>2247</v>
@@ -8498,7 +8501,111 @@
         <v>63447</v>
       </c>
       <c r="AH75">
-        <v>10937</v>
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>340074</v>
+      </c>
+      <c r="C76">
+        <v>1979</v>
+      </c>
+      <c r="D76">
+        <v>1974</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>73298</v>
+      </c>
+      <c r="G76">
+        <v>103</v>
+      </c>
+      <c r="H76">
+        <v>73195</v>
+      </c>
+      <c r="I76">
+        <v>-552</v>
+      </c>
+      <c r="J76">
+        <v>74093</v>
+      </c>
+      <c r="K76">
+        <v>4733</v>
+      </c>
+      <c r="L76">
+        <v>69360</v>
+      </c>
+      <c r="M76">
+        <v>183804</v>
+      </c>
+      <c r="N76">
+        <v>180720</v>
+      </c>
+      <c r="O76">
+        <v>1172</v>
+      </c>
+      <c r="P76">
+        <v>1912</v>
+      </c>
+      <c r="Q76">
+        <v>7452</v>
+      </c>
+      <c r="R76">
+        <v>12280</v>
+      </c>
+      <c r="S76">
+        <v>327795</v>
+      </c>
+      <c r="T76">
+        <v>439</v>
+      </c>
+      <c r="U76">
+        <v>23867</v>
+      </c>
+      <c r="V76">
+        <v>12990</v>
+      </c>
+      <c r="W76">
+        <v>10877</v>
+      </c>
+      <c r="X76">
+        <v>56444</v>
+      </c>
+      <c r="Y76">
+        <v>508</v>
+      </c>
+      <c r="Z76">
+        <v>55935</v>
+      </c>
+      <c r="AA76">
+        <v>13643</v>
+      </c>
+      <c r="AB76">
+        <v>934</v>
+      </c>
+      <c r="AC76">
+        <v>12709</v>
+      </c>
+      <c r="AD76">
+        <v>221240</v>
+      </c>
+      <c r="AE76">
+        <v>156058</v>
+      </c>
+      <c r="AF76">
+        <v>2030</v>
+      </c>
+      <c r="AG76">
+        <v>63153</v>
+      </c>
+      <c r="AH76">
+        <v>12161</v>
       </c>
     </row>
   </sheetData>
